--- a/Hardware/kicad/Lyra_flight_computer/lyrav3r1/lyrav3r1/power use.xlsx
+++ b/Hardware/kicad/Lyra_flight_computer/lyrav3r1/lyrav3r1/power use.xlsx
@@ -19,6 +19,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max power draw (mA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total power draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp2040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high g accel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lcsc.com/product-detail/New-Arrivals_Analog-Devices-ADI-ADXL375BCCZ-RL7_C481898.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmp390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/pdfdocs/BST-BMP388-DS001-01.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmi088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://download.mikroe.com/documents/datasheets/BMI088_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sx1262</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,14 +161,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
